--- a/UiAutoFrame/src/test/resources/excelData/126邮箱测试数据.xlsx
+++ b/UiAutoFrame/src/test/resources/excelData/126邮箱测试数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4C3142-8F8C-432B-B991-E58E0DB65AF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51111065-20A6-43F4-8FCA-1C8F0898F7B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1020" windowWidth="24795" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11205" yWindow="6630" windowWidth="24795" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新建联系人测试数据" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567889</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lisi@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangsan@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12344574767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这也是一个描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,6 +87,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -54,14 +115,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -339,16 +404,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{B2F0DDC3-C9C1-4D42-855F-6EDD97972A70}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{7CDB9A37-6CF6-47CF-A69B-497580C280E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>